--- a/02_Excel/V_lookup.xlsx
+++ b/02_Excel/V_lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_DS_Club1\02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D532C-E446-4CD6-9D6D-18C84759F388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F9D4B-1FCE-4C16-8C47-7A85C5EB18F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="119">
   <si>
     <t>Bangalore</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Day (Full)</t>
+  </si>
+  <si>
+    <t>Index no:</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -470,7 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B736C625-B57A-4AE4-8629-8EEB1C69E5CA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2629,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB577DF-638F-4298-92CB-53DE6B59151B}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -2746,7 +2748,7 @@
         <f>MONTH(A3)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <f>DAY(A3)</f>
         <v>19</v>
       </c>
@@ -2817,7 +2819,7 @@
         <f t="shared" ref="G4:G17" si="3">MONTH(A4)</f>
         <v>4</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <f t="shared" ref="H4:H17" si="4">DAY(A4)</f>
         <v>9</v>
       </c>
@@ -2888,7 +2890,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -2959,7 +2961,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -3030,7 +3032,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -3101,7 +3103,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -3172,7 +3174,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
@@ -3243,7 +3245,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -3314,7 +3316,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -3385,7 +3387,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
@@ -3456,7 +3458,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
@@ -3527,7 +3529,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -3598,7 +3600,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -3669,7 +3671,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -3740,7 +3742,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -3795,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEB442B-7F4D-4258-B9D7-6C1EB139DF11}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3810,7 +3812,7 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3827,10 +3829,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>335982</v>
       </c>
@@ -3848,11 +3853,15 @@
         <v>Bangalore</v>
       </c>
       <c r="G2">
-        <f>INDEX(A1:A26, 10)</f>
+        <f>MATCH(335985,  A2:A20, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f>INDEX(A6:A23, 5)</f>
         <v>335990</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>335983</v>
       </c>
@@ -3869,8 +3878,16 @@
         <f>VLOOKUP(A3,city!A3:E27,5)</f>
         <v>Chandigarh</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>MATCH("Jaipur", A7:E7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <f>INDEX(A5:E5, 3)</f>
+        <v>Royal Challengers Bangalore</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>335984</v>
       </c>
@@ -3887,12 +3904,8 @@
         <f>VLOOKUP(A4,city!A4:E28,5)</f>
         <v>Delhi</v>
       </c>
-      <c r="G4" t="str">
-        <f>INDEX(A1:E26, 10, 3)</f>
-        <v>Rajasthan Royals</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>335985</v>
       </c>
@@ -3909,8 +3922,12 @@
         <f>VLOOKUP(A5,city!A5:E29,5)</f>
         <v>Mumbai</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" t="str">
+        <f>INDEX(A2:E11, 3, 4)</f>
+        <v>Rajasthan Royals</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>335986</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>Kolkata</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>335987</v>
       </c>
@@ -3945,11 +3962,9 @@
         <f>VLOOKUP(A7,city!A7:E31,5)</f>
         <v>Jaipur</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>335988</v>
       </c>
@@ -3966,12 +3981,8 @@
         <f>VLOOKUP(A8,city!A8:E32,5)</f>
         <v>Hyderabad</v>
       </c>
-      <c r="G8">
-        <f>MATCH(335990, A1:A26, 0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>335989</v>
       </c>
@@ -3989,7 +4000,7 @@
         <v>Chennai</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>335990</v>
       </c>
@@ -4007,7 +4018,7 @@
         <v>Hyderabad</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>335991</v>
       </c>
@@ -4029,7 +4040,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>335992</v>
       </c>
@@ -4051,11 +4062,18 @@
         <v>59</v>
       </c>
       <c r="H12" s="6">
-        <v>335985</v>
+        <v>336001</v>
       </c>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12">
+        <f>MATCH(H12, A2:A26, 0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>335993</v>
       </c>
@@ -4077,7 +4095,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>335994</v>
       </c>
@@ -4099,12 +4117,12 @@
         <v>60</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>INDEX(A1:E26, MATCH(H12, A1:A26, 0), 4)</f>
-        <v>Mumbai Indians</v>
+        <f>INDEX(A2:E26, L12, 4)</f>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>335995</v>
       </c>
@@ -4126,7 +4144,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>335996</v>
       </c>
@@ -4147,7 +4165,10 @@
       <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="str">
+        <f>INDEX(A2:E26, MATCH(H12, A2:A26, 0), 5)</f>
+        <v>Chennai</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
